--- a/Smart_Simulation_inputs_V.0.2.xlsx
+++ b/Smart_Simulation_inputs_V.0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Manpy\SmartSim\ORNL\forAdam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Manpy\Flexible-Manufacturing-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95415E6A-31C1-4BEC-98AA-A7FBFEF3251D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9E15A-D302-46A0-90AA-519B8FA4B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levelized_Tasks" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="111">
   <si>
     <t>ProcessTimeSTD</t>
   </si>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,8 +672,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,7 +688,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -772,6 +791,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -789,6 +809,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -808,6 +829,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -986,55 +1008,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1349,20 +1322,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1377,50 +1336,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC42339-01DD-4B1B-9C03-C429E31B2AF0}" name="Table1" displayName="Table1" ref="A2:N76" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC42339-01DD-4B1B-9C03-C429E31B2AF0}" name="Table1" displayName="Table1" ref="A2:N76" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A2:N76" xr:uid="{2FC42339-01DD-4B1B-9C03-C429E31B2AF0}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3F1C5F43-8DCD-4E55-8A05-43851D7228B5}" name="Level_1" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{AA00FF89-EE9A-45A1-ACC5-BEF20C87AB4E}" name="Level_2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{17F5B02A-2BC8-44EC-8696-458AD9D9DBA9}" name="Level_3" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{1CDAFD7F-1CF7-4BAC-9046-70093B8FA393}" name="ProcessTimeMEAN" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{34B6E46A-E1E5-4465-BC1F-76DA36105060}" name="ProcessTimeSTD" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{A648F52D-5116-43BB-9382-DA87B82CA1DB}" name="SetupTimeMEAN" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{11C9A5E1-3FD5-47DA-9BCD-31CA774FC68F}" name="SetupTimeSTD" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{7D66CE7F-6278-4DB8-9E3A-F1A100D74B99}" name="LoadTimeMEAN" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{01CE3049-2599-4C50-8997-921441E9CAE5}" name="LoadTimeSTD" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{DC3C13FE-91CD-4A8F-939C-611405260DCF}" name="IsFail" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{C14E8EA7-45F2-4792-A55F-38C6162CE1A6}" name="MTTF" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{478F9475-D9A0-4C5F-91FA-6FE24F9E5DAF}" name="STDTTF" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{DFA10B74-A801-4739-BF26-536FDCFC6936}" name="MTTR" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{F0CB4395-ED0E-4226-A96C-9DFA7EAF92AD}" name="STDTTR" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3F1C5F43-8DCD-4E55-8A05-43851D7228B5}" name="Level_1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{AA00FF89-EE9A-45A1-ACC5-BEF20C87AB4E}" name="Level_2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{17F5B02A-2BC8-44EC-8696-458AD9D9DBA9}" name="Level_3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{1CDAFD7F-1CF7-4BAC-9046-70093B8FA393}" name="ProcessTimeMEAN" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{34B6E46A-E1E5-4465-BC1F-76DA36105060}" name="ProcessTimeSTD" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{A648F52D-5116-43BB-9382-DA87B82CA1DB}" name="SetupTimeMEAN" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{11C9A5E1-3FD5-47DA-9BCD-31CA774FC68F}" name="SetupTimeSTD" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{7D66CE7F-6278-4DB8-9E3A-F1A100D74B99}" name="LoadTimeMEAN" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{01CE3049-2599-4C50-8997-921441E9CAE5}" name="LoadTimeSTD" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{DC3C13FE-91CD-4A8F-939C-611405260DCF}" name="IsFail" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{C14E8EA7-45F2-4792-A55F-38C6162CE1A6}" name="MTTF" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{478F9475-D9A0-4C5F-91FA-6FE24F9E5DAF}" name="STDTTF" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{DFA10B74-A801-4739-BF26-536FDCFC6936}" name="MTTR" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{F0CB4395-ED0E-4226-A96C-9DFA7EAF92AD}" name="STDTTR" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89D86EEF-0173-496A-805D-60F9D01B6A71}" name="Table13" displayName="Table13" ref="A3:L527" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89D86EEF-0173-496A-805D-60F9D01B6A71}" name="Table13" displayName="Table13" ref="A3:L527" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A3:L527" xr:uid="{05A8F2FA-B1A9-4269-9EBA-E1A0328A9DC5}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8644F192-F1C0-4DF8-A312-628E6FC4EE48}" name="WorkStationIndex" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9EBE3501-6495-4F5A-90B1-454357716E54}" name="ProcessTimeMEAN" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4E00D06D-FD7A-4B2A-977E-6773C5C1E1E2}" name="ProcessTimeSTD" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DB905CB0-F4F9-4353-B345-907D6B9511A2}" name="IsFail" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{9B3C5FF8-CA57-42E0-B62E-495B96E783CA}" name="MTTF" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A1F35E79-11CB-423C-BF74-7655C21A8165}" name="STDTTF" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{56622DFE-339A-457B-889A-FF2C16C310B0}" name="MTTR" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{52DA9E8F-D920-4319-9957-5D8902849295}" name="STDTTR" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1BA41B87-2FD5-4B14-9AA9-A07201578E7E}" name="MTTF_valid" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{8644F192-F1C0-4DF8-A312-628E6FC4EE48}" name="WorkStationIndex" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9EBE3501-6495-4F5A-90B1-454357716E54}" name="ProcessTimeMEAN" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{4E00D06D-FD7A-4B2A-977E-6773C5C1E1E2}" name="ProcessTimeSTD" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{DB905CB0-F4F9-4353-B345-907D6B9511A2}" name="IsFail" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9B3C5FF8-CA57-42E0-B62E-495B96E783CA}" name="MTTF" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A1F35E79-11CB-423C-BF74-7655C21A8165}" name="STDTTF" dataDxfId="9">
+      <calculatedColumnFormula>Table13[[#This Row],[MTTF]]/N4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{56622DFE-339A-457B-889A-FF2C16C310B0}" name="MTTR" dataDxfId="8">
+      <calculatedColumnFormula>Table13[[#This Row],[MTTF]]/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{52DA9E8F-D920-4319-9957-5D8902849295}" name="STDTTR" dataDxfId="7">
+      <calculatedColumnFormula>ROUND(Table13[[#This Row],[MTTR]]/N4,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1BA41B87-2FD5-4B14-9AA9-A07201578E7E}" name="MTTF_valid" dataDxfId="6">
       <calculatedColumnFormula>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9A9F91FD-356D-400F-BDC3-28FB2F0F48CE}" name="STDTTF_valid" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{9A9F91FD-356D-400F-BDC3-28FB2F0F48CE}" name="STDTTF_valid" dataDxfId="5">
       <calculatedColumnFormula>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[STDTTF]],0.2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1344C498-27F7-4FC7-BB5B-208CA31669CD}" name="MTTR_valid" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{1344C498-27F7-4FC7-BB5B-208CA31669CD}" name="MTTR_valid" dataDxfId="4">
       <calculatedColumnFormula>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTR]],1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F9E130A3-5563-4E42-9124-06289049A1A1}" name="STDTTR_valid" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{F9E130A3-5563-4E42-9124-06289049A1A1}" name="STDTTR_valid" dataDxfId="3">
       <calculatedColumnFormula>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[STDTTR]],0.2),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1697,45 +1662,45 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="14" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1779,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -1803,7 +1768,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +1792,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
@@ -1851,7 +1816,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1838,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1862,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -1921,7 +1886,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
@@ -1945,7 +1910,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +1934,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>33</v>
       </c>
@@ -1993,7 +1958,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +1980,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
@@ -2039,7 +2004,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>33</v>
       </c>
@@ -2063,7 +2028,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>33</v>
       </c>
@@ -2087,7 +2052,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>33</v>
       </c>
@@ -2109,14 +2074,14 @@
       <c r="M16" s="21"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="21"/>
@@ -2133,14 +2098,14 @@
       <c r="M17" s="21"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="21"/>
@@ -2157,7 +2122,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
@@ -2177,7 +2142,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>34</v>
       </c>
@@ -2201,7 +2166,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
@@ -2225,7 +2190,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
@@ -2249,7 +2214,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>34</v>
       </c>
@@ -2271,7 +2236,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
@@ -2295,7 +2260,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
@@ -2319,7 +2284,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>34</v>
       </c>
@@ -2343,7 +2308,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>34</v>
       </c>
@@ -2367,7 +2332,7 @@
       <c r="M27" s="21"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +2354,7 @@
       <c r="M28" s="21"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
@@ -2413,7 +2378,7 @@
       <c r="M29" s="21"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -2437,7 +2402,7 @@
       <c r="M30" s="21"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>34</v>
       </c>
@@ -2461,7 +2426,7 @@
       <c r="M31" s="21"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +2450,7 @@
       <c r="M32" s="21"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>34</v>
       </c>
@@ -2507,7 +2472,7 @@
       <c r="M33" s="21"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
@@ -2531,7 +2496,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>34</v>
       </c>
@@ -2555,7 +2520,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="23"/>
     </row>
-    <row r="36" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>34</v>
       </c>
@@ -2579,7 +2544,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="23"/>
     </row>
-    <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>34</v>
       </c>
@@ -2603,7 +2568,7 @@
       <c r="M37" s="21"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2590,7 @@
       <c r="M38" s="21"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>34</v>
       </c>
@@ -2649,7 +2614,7 @@
       <c r="M39" s="21"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>34</v>
       </c>
@@ -2673,7 +2638,7 @@
       <c r="M40" s="21"/>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>34</v>
       </c>
@@ -2697,7 +2662,7 @@
       <c r="M41" s="21"/>
       <c r="N41" s="23"/>
     </row>
-    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>34</v>
       </c>
@@ -2719,7 +2684,7 @@
       <c r="M42" s="21"/>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>34</v>
       </c>
@@ -2743,7 +2708,7 @@
       <c r="M43" s="21"/>
       <c r="N43" s="23"/>
     </row>
-    <row r="44" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>34</v>
       </c>
@@ -2767,7 +2732,7 @@
       <c r="M44" s="21"/>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>34</v>
       </c>
@@ -2791,7 +2756,7 @@
       <c r="M45" s="21"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>34</v>
       </c>
@@ -2813,7 +2778,7 @@
       <c r="M46" s="21"/>
       <c r="N46" s="23"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2798,7 @@
       <c r="M47" s="21"/>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>35</v>
       </c>
@@ -2857,7 +2822,7 @@
       <c r="M48" s="21"/>
       <c r="N48" s="23"/>
     </row>
-    <row r="49" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>35</v>
       </c>
@@ -2881,7 +2846,7 @@
       <c r="M49" s="21"/>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>35</v>
       </c>
@@ -2905,7 +2870,7 @@
       <c r="M50" s="21"/>
       <c r="N50" s="23"/>
     </row>
-    <row r="51" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>35</v>
       </c>
@@ -2929,7 +2894,7 @@
       <c r="M51" s="21"/>
       <c r="N51" s="23"/>
     </row>
-    <row r="52" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>35</v>
       </c>
@@ -2953,7 +2918,7 @@
       <c r="M52" s="21"/>
       <c r="N52" s="23"/>
     </row>
-    <row r="53" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>35</v>
       </c>
@@ -2977,7 +2942,7 @@
       <c r="M53" s="21"/>
       <c r="N53" s="23"/>
     </row>
-    <row r="54" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +2966,7 @@
       <c r="M54" s="21"/>
       <c r="N54" s="23"/>
     </row>
-    <row r="55" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>35</v>
       </c>
@@ -3023,7 +2988,7 @@
       <c r="M55" s="21"/>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3012,7 @@
       <c r="M56" s="21"/>
       <c r="N56" s="23"/>
     </row>
-    <row r="57" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +3036,7 @@
       <c r="M57" s="21"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>35</v>
       </c>
@@ -3095,7 +3060,7 @@
       <c r="M58" s="21"/>
       <c r="N58" s="23"/>
     </row>
-    <row r="59" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>35</v>
       </c>
@@ -3119,7 +3084,7 @@
       <c r="M59" s="21"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3108,7 @@
       <c r="M60" s="21"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>35</v>
       </c>
@@ -3165,7 +3130,7 @@
       <c r="M61" s="21"/>
       <c r="N61" s="23"/>
     </row>
-    <row r="62" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>35</v>
       </c>
@@ -3189,7 +3154,7 @@
       <c r="M62" s="21"/>
       <c r="N62" s="23"/>
     </row>
-    <row r="63" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>35</v>
       </c>
@@ -3213,7 +3178,7 @@
       <c r="M63" s="21"/>
       <c r="N63" s="23"/>
     </row>
-    <row r="64" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>35</v>
       </c>
@@ -3237,7 +3202,7 @@
       <c r="M64" s="21"/>
       <c r="N64" s="23"/>
     </row>
-    <row r="65" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>35</v>
       </c>
@@ -3261,7 +3226,7 @@
       <c r="M65" s="21"/>
       <c r="N65" s="23"/>
     </row>
-    <row r="66" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>35</v>
       </c>
@@ -3285,7 +3250,7 @@
       <c r="M66" s="21"/>
       <c r="N66" s="23"/>
     </row>
-    <row r="67" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>35</v>
       </c>
@@ -3307,7 +3272,7 @@
       <c r="M67" s="21"/>
       <c r="N67" s="23"/>
     </row>
-    <row r="68" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>35</v>
       </c>
@@ -3331,7 +3296,7 @@
       <c r="M68" s="21"/>
       <c r="N68" s="23"/>
     </row>
-    <row r="69" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>35</v>
       </c>
@@ -3355,7 +3320,7 @@
       <c r="M69" s="21"/>
       <c r="N69" s="23"/>
     </row>
-    <row r="70" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>35</v>
       </c>
@@ -3379,7 +3344,7 @@
       <c r="M70" s="21"/>
       <c r="N70" s="23"/>
     </row>
-    <row r="71" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>35</v>
       </c>
@@ -3403,7 +3368,7 @@
       <c r="M71" s="21"/>
       <c r="N71" s="23"/>
     </row>
-    <row r="72" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>35</v>
       </c>
@@ -3427,7 +3392,7 @@
       <c r="M72" s="21"/>
       <c r="N72" s="23"/>
     </row>
-    <row r="73" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>35</v>
       </c>
@@ -3451,7 +3416,7 @@
       <c r="M73" s="21"/>
       <c r="N73" s="23"/>
     </row>
-    <row r="74" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>35</v>
       </c>
@@ -3475,11 +3440,11 @@
       <c r="M74" s="25"/>
       <c r="N74" s="26"/>
     </row>
-    <row r="75" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="25"/>
@@ -3497,7 +3462,7 @@
       <c r="M75" s="25"/>
       <c r="N75" s="26"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>35</v>
       </c>
@@ -3526,14 +3491,14 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="K3:N3">
-    <cfRule type="expression" dxfId="43" priority="2">
-      <formula>$H3="no"</formula>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$H4="no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="42" priority="1">
-      <formula>$H4="no"</formula>
+  <conditionalFormatting sqref="K3:N3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H3="no"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3557,51 +3522,51 @@
   <dimension ref="A1:L527"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="4" customWidth="1"/>
+    <col min="9" max="12" width="14.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3639,15 +3604,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -3669,15 +3634,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -3699,15 +3664,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -3729,15 +3694,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -3759,15 +3724,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -3789,15 +3754,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -3819,15 +3784,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -3849,15 +3814,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -3879,103 +3844,79 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2">
-        <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
-        <v>100000</v>
-      </c>
-      <c r="J12" s="2">
-        <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[STDTTF]],0.2),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="2">
-        <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTR]],1),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[STDTTR]],0.2),"")</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I24" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -3993,7 +3934,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I25" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4011,7 +3952,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I26" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4029,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I27" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4047,7 +3988,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I28" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4065,7 +4006,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I29" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4083,7 +4024,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I30" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4101,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I31" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4119,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I32" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4137,7 +4078,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I33" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4155,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I34" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4173,7 +4114,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I35" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4191,7 +4132,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4217,7 +4158,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I37" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4235,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I38" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4253,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I39" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4271,7 +4212,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I40" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4289,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I41" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4307,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4333,7 +4274,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I43" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4351,7 +4292,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I44" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4369,7 +4310,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I45" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4387,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I46" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4405,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I47" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4423,7 +4364,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I48" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4441,7 +4382,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I49" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4459,7 +4400,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I50" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4477,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I51" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4495,7 +4436,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I52" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4513,7 +4454,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I53" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4531,7 +4472,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I54" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4549,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I55" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4567,7 +4508,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I56" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4585,7 +4526,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I57" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4603,7 +4544,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I58" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4621,7 +4562,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I59" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4639,7 +4580,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I60" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4657,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I61" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4675,7 +4616,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I62" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4693,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I63" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4711,7 +4652,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I64" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4729,7 +4670,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I65" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4747,7 +4688,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I66" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4765,7 +4706,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I67" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4783,7 +4724,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I68" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4801,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I69" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4819,7 +4760,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I70" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4837,7 +4778,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I71" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4855,7 +4796,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I72" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4873,7 +4814,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I73" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4891,7 +4832,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I74" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4909,7 +4850,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I75" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4927,7 +4868,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I76" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4945,7 +4886,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I77" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4963,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I78" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4981,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I79" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -4999,7 +4940,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I80" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5017,7 +4958,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I81" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5035,7 +4976,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I82" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5053,7 +4994,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I83" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5071,7 +5012,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I84" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5089,7 +5030,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I85" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5107,7 +5048,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I86" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5125,7 +5066,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I87" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5143,7 +5084,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I88" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5161,7 +5102,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I89" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5179,7 +5120,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I90" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5197,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I91" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5215,7 +5156,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I92" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5233,7 +5174,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I93" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5251,7 +5192,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I94" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5269,7 +5210,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I95" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5287,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I96" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5305,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I97" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5323,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I98" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5341,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I99" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5359,7 +5300,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I100" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5377,7 +5318,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I101" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5395,7 +5336,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I102" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5413,7 +5354,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I103" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5431,7 +5372,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I104" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5449,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I105" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5467,7 +5408,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I106" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5485,7 +5426,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I107" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5503,7 +5444,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I108" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5521,7 +5462,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I109" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5539,7 +5480,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I110" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5557,7 +5498,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I111" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5575,7 +5516,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I112" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5593,7 +5534,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I113" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5611,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I114" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5629,7 +5570,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I115" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5647,7 +5588,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I116" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5665,7 +5606,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I117" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5683,7 +5624,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I118" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5701,7 +5642,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I119" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5719,7 +5660,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I120" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5737,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I121" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5755,7 +5696,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I122" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5773,7 +5714,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I123" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5791,7 +5732,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I124" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5809,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I125" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5827,7 +5768,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I126" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5845,7 +5786,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I127" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5863,7 +5804,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I128" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5881,7 +5822,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I129" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5899,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I130" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5917,7 +5858,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I131" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5935,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I132" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5953,7 +5894,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I133" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5971,7 +5912,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I134" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -5989,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I135" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6007,7 +5948,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I136" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6025,7 +5966,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I137" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6043,7 +5984,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I138" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6061,7 +6002,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I139" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6079,7 +6020,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I140" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6097,7 +6038,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I141" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6115,7 +6056,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I142" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6133,7 +6074,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I143" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6151,7 +6092,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I144" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6169,7 +6110,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I145" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6187,7 +6128,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I146" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6205,7 +6146,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I147" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6223,7 +6164,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I148" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6241,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I149" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6259,7 +6200,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I150" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6277,7 +6218,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I151" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6295,7 +6236,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I152" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6313,7 +6254,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I153" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6331,7 +6272,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I154" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6349,7 +6290,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I155" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6367,7 +6308,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I156" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6385,7 +6326,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I157" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6403,7 +6344,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I158" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6421,7 +6362,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I159" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6439,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I160" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6457,7 +6398,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I161" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6475,7 +6416,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I162" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6493,7 +6434,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I163" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6511,7 +6452,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I164" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6529,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I165" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6547,7 +6488,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I166" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6565,7 +6506,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I167" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6583,7 +6524,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I168" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6601,7 +6542,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I169" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6619,7 +6560,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I170" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6637,7 +6578,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I171" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6655,7 +6596,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I172" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6673,7 +6614,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I173" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6691,7 +6632,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I174" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6709,7 +6650,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I175" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6727,7 +6668,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I176" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6745,7 +6686,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I177" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6763,7 +6704,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I178" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6781,7 +6722,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I179" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6799,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I180" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6817,7 +6758,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I181" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6835,7 +6776,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I182" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6853,7 +6794,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I183" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6871,7 +6812,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I184" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6889,7 +6830,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I185" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6907,7 +6848,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I186" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6925,7 +6866,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I187" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6943,7 +6884,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I188" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6961,7 +6902,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I189" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6979,7 +6920,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I190" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -6997,7 +6938,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I191" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7015,7 +6956,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I192" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7033,7 +6974,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I193" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7051,7 +6992,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I194" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7069,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I195" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7087,7 +7028,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I196" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7105,7 +7046,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I197" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7123,7 +7064,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I198" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7141,7 +7082,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I199" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7159,7 +7100,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I200" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7177,7 +7118,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I201" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7195,7 +7136,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I202" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7213,7 +7154,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I203" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7231,7 +7172,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I204" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7249,7 +7190,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I205" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7267,7 +7208,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I206" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7285,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I207" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7303,7 +7244,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I208" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7321,7 +7262,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I209" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7339,7 +7280,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I210" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7357,7 +7298,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I211" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7375,7 +7316,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I212" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7393,7 +7334,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I213" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7411,7 +7352,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I214" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7429,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I215" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7447,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I216" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7465,7 +7406,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I217" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7483,7 +7424,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I218" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7501,7 +7442,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I219" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7519,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I220" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7537,7 +7478,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I221" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7555,7 +7496,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I222" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7573,7 +7514,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I223" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7591,7 +7532,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I224" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7609,7 +7550,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I225" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7627,7 +7568,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I226" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7645,7 +7586,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I227" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7663,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I228" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7681,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I229" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7699,7 +7640,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I230" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7717,7 +7658,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I231" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7735,7 +7676,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I232" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7753,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I233" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7771,7 +7712,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I234" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7789,7 +7730,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I235" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7807,7 +7748,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I236" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7825,7 +7766,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I237" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7843,7 +7784,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I238" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7861,7 +7802,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I239" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7879,7 +7820,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I240" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7897,7 +7838,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I241" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7915,7 +7856,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I242" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7933,7 +7874,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I243" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7951,7 +7892,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I244" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7969,7 +7910,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I245" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -7987,7 +7928,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I246" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8005,7 +7946,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I247" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8023,7 +7964,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I248" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8041,7 +7982,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I249" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8059,7 +8000,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I250" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8077,7 +8018,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I251" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8095,7 +8036,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I252" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8113,7 +8054,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I253" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8131,7 +8072,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I254" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8149,7 +8090,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I255" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8167,7 +8108,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I256" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8185,7 +8126,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I257" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8203,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I258" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8221,7 +8162,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I259" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8239,7 +8180,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I260" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8257,7 +8198,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I261" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8275,7 +8216,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I262" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8293,7 +8234,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I263" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8311,7 +8252,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I264" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8329,7 +8270,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I265" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8347,7 +8288,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I266" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8365,7 +8306,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I267" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8383,7 +8324,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I268" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8401,7 +8342,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I269" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8419,7 +8360,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I270" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8437,7 +8378,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I271" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8455,7 +8396,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -8481,7 +8422,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I273" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8499,7 +8440,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I274" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8517,7 +8458,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I275" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8535,7 +8476,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I276" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8553,7 +8494,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I277" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8571,7 +8512,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I278" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8589,7 +8530,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I279" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8607,7 +8548,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I280" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8625,7 +8566,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I281" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8643,7 +8584,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I282" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8661,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I283" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8679,7 +8620,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I284" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8697,7 +8638,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I285" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8715,7 +8656,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I286" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8733,7 +8674,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I287" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8751,7 +8692,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I288" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8769,7 +8710,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I289" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8787,7 +8728,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I290" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8805,7 +8746,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I291" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8823,7 +8764,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I292" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8841,7 +8782,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I293" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8859,7 +8800,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I294" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8877,7 +8818,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I295" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8895,7 +8836,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I296" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8913,7 +8854,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I297" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8931,7 +8872,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I298" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8949,7 +8890,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I299" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8967,7 +8908,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I300" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -8985,7 +8926,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I301" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9003,7 +8944,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I302" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9021,7 +8962,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I303" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9039,7 +8980,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I304" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9057,7 +8998,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I305" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9075,7 +9016,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I306" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9093,7 +9034,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I307" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9111,7 +9052,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I308" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9129,7 +9070,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I309" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9147,7 +9088,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I310" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9165,7 +9106,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I311" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9183,7 +9124,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I312" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9201,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I313" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9219,7 +9160,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I314" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9237,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I315" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9255,7 +9196,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I316" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9273,7 +9214,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I317" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9291,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I318" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9309,7 +9250,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I319" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9327,7 +9268,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I320" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9345,7 +9286,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I321" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9363,7 +9304,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I322" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9381,7 +9322,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I323" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9399,7 +9340,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I324" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9417,7 +9358,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I325" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9435,7 +9376,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I326" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9453,7 +9394,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I327" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9471,7 +9412,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I328" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9489,7 +9430,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I329" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9507,7 +9448,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I330" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9525,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I331" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9543,7 +9484,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I332" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9561,7 +9502,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I333" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9579,7 +9520,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I334" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9597,7 +9538,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I335" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9615,7 +9556,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I336" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9633,7 +9574,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I337" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9651,7 +9592,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I338" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9669,7 +9610,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I339" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9687,7 +9628,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I340" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9705,7 +9646,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I341" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9723,7 +9664,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I342" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9741,7 +9682,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I343" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9759,7 +9700,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I344" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9777,7 +9718,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I345" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9795,7 +9736,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I346" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9813,7 +9754,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I347" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9831,7 +9772,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I348" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9849,7 +9790,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I349" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9867,7 +9808,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I350" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9885,7 +9826,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I351" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9903,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I352" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9921,7 +9862,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I353" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9939,7 +9880,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I354" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9957,7 +9898,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I355" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9975,7 +9916,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I356" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -9993,7 +9934,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I357" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10011,7 +9952,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I358" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10029,7 +9970,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I359" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10047,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I360" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10065,7 +10006,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I361" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10083,7 +10024,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I362" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10101,7 +10042,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I363" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10119,7 +10060,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I364" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10137,7 +10078,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I365" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10155,7 +10096,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I366" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10173,7 +10114,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I367" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10191,7 +10132,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I368" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10209,7 +10150,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I369" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10227,7 +10168,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I370" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10245,7 +10186,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I371" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10263,7 +10204,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I372" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10281,7 +10222,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I373" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10299,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I374" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10317,7 +10258,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I375" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10335,7 +10276,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I376" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10353,7 +10294,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I377" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10371,7 +10312,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I378" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10389,7 +10330,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I379" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10407,7 +10348,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I380" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10425,7 +10366,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I381" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10443,7 +10384,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I382" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10461,7 +10402,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I383" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10479,7 +10420,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I384" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10497,7 +10438,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I385" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10515,7 +10456,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I386" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10533,7 +10474,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I387" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10551,7 +10492,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I388" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10569,7 +10510,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I389" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10587,7 +10528,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I390" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10605,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I391" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10623,7 +10564,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I392" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10641,7 +10582,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I393" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10659,7 +10600,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I394" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10677,7 +10618,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I395" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10695,7 +10636,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I396" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10713,7 +10654,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I397" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10731,7 +10672,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I398" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10749,7 +10690,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I399" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10767,7 +10708,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I400" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10785,7 +10726,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I401" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10803,7 +10744,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I402" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10821,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I403" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10839,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I404" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10857,7 +10798,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I405" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10875,7 +10816,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I406" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10893,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I407" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10911,7 +10852,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I408" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10929,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I409" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10947,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I410" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10965,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I411" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -10983,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I412" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11001,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I413" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11019,7 +10960,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I414" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11037,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I415" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11055,7 +10996,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I416" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11073,7 +11014,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I417" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11091,7 +11032,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I418" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11109,7 +11050,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I419" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11127,7 +11068,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I420" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11145,7 +11086,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I421" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11163,7 +11104,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I422" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11181,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I423" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11199,7 +11140,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I424" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11217,7 +11158,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I425" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11235,7 +11176,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I426" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11253,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I427" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11271,7 +11212,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I428" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11289,7 +11230,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I429" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11307,7 +11248,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I430" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11325,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I431" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11343,7 +11284,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I432" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11361,7 +11302,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I433" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11379,7 +11320,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I434" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11397,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I435" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11415,7 +11356,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I436" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11433,7 +11374,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I437" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11451,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I438" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11469,7 +11410,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I439" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11487,7 +11428,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I440" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11505,7 +11446,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I441" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11523,7 +11464,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I442" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11541,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I443" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11559,7 +11500,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I444" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11577,7 +11518,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I445" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11595,7 +11536,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I446" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11613,7 +11554,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I447" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11631,7 +11572,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I448" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11649,7 +11590,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I449" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11667,7 +11608,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I450" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11685,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I451" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11703,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I452" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11721,7 +11662,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I453" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11739,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I454" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11757,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I455" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11775,7 +11716,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I456" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11793,7 +11734,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I457" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11811,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I458" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11829,7 +11770,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I459" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11847,7 +11788,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I460" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11865,7 +11806,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I461" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11883,7 +11824,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I462" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11901,7 +11842,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I463" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11919,7 +11860,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I464" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11937,7 +11878,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I465" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11955,7 +11896,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I466" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11973,7 +11914,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I467" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -11991,7 +11932,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I468" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12009,7 +11950,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I469" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12027,7 +11968,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I470" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12045,7 +11986,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I471" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12063,7 +12004,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I472" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12081,7 +12022,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I473" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12099,7 +12040,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I474" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12117,7 +12058,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I475" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12135,7 +12076,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I476" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12153,7 +12094,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I477" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12171,7 +12112,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I478" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12189,7 +12130,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I479" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12207,7 +12148,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I480" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12225,7 +12166,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I481" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12243,7 +12184,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I482" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12261,7 +12202,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I483" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12279,7 +12220,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I484" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12297,7 +12238,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I485" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12315,7 +12256,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I486" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12333,7 +12274,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I487" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12351,7 +12292,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I488" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12369,7 +12310,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I489" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12387,7 +12328,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I490" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12405,7 +12346,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I491" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12423,7 +12364,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I492" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12441,7 +12382,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I493" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12459,7 +12400,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I494" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12477,7 +12418,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I495" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12495,7 +12436,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I496" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12513,7 +12454,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I497" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12531,7 +12472,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I498" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12549,7 +12490,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I499" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12567,7 +12508,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I500" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12585,7 +12526,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I501" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12603,7 +12544,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I502" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12621,7 +12562,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I503" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12639,7 +12580,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I504" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12657,7 +12598,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I505" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12675,7 +12616,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I506" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12693,7 +12634,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I507" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12711,7 +12652,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I508" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12729,7 +12670,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I509" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12747,7 +12688,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I510" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12765,7 +12706,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I511" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12783,7 +12724,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I512" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12801,7 +12742,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I513" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12819,7 +12760,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I514" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12837,7 +12778,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I515" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12855,7 +12796,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I516" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12873,7 +12814,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I517" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12891,7 +12832,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I518" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12909,7 +12850,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I519" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12927,7 +12868,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I520" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12945,7 +12886,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I521" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12963,7 +12904,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I522" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12981,7 +12922,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I523" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -12999,7 +12940,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I524" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -13017,7 +12958,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I525" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -13035,7 +12976,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I526" s="2" t="str">
         <f>IF(Table13[[#This Row],[WorkStationIndex]]&lt;&gt;"",IF(Table13[[#This Row],[IsFail]]="yes",Table13[[#This Row],[MTTF]],100000),"")</f>
         <v/>
@@ -13053,7 +12994,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -13085,39 +13026,9 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E20:H527 E4:H7 E9:H11">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="E4:H527">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D4="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:H13">
-    <cfRule type="expression" dxfId="22" priority="6">
-      <formula>$D12="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:H19">
-    <cfRule type="expression" dxfId="21" priority="5">
-      <formula>$D17="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>$D14="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:H16">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>$D16="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:H15">
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>$D15="no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>$D8="no"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -13148,24 +13059,24 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="2" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
@@ -13173,7 +13084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>10</v>
       </c>
@@ -13199,27 +13110,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -13238,13 +13149,13 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -13255,7 +13166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -13274,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -13293,7 +13204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -13312,7 +13223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -13331,7 +13242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -13350,7 +13261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -13369,7 +13280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -13388,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -13407,7 +13318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -13426,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -13445,7 +13356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -13464,7 +13375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -13479,7 +13390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -13494,7 +13405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -13513,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -13532,7 +13443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -13551,7 +13462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -13570,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -13589,7 +13500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -13608,7 +13519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -13627,7 +13538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -13646,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -13665,7 +13576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -13684,7 +13595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -13703,7 +13614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -13722,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -13741,7 +13652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -13760,7 +13671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -13779,7 +13690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -13798,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -13817,7 +13728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -13836,7 +13747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -13855,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -13874,7 +13785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -13893,7 +13804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -13912,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13931,7 +13842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -13950,7 +13861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -13969,7 +13880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -13988,7 +13899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -14007,7 +13918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -14026,7 +13937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -14045,7 +13956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -14064,7 +13975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -14083,7 +13994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -14102,7 +14013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -14121,7 +14032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -14140,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -14159,7 +14070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -14178,7 +14089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -14197,7 +14108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -14216,7 +14127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -14235,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -14254,7 +14165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -14273,7 +14184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -14292,7 +14203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -14311,7 +14222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -14330,7 +14241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>35</v>
       </c>
